--- a/Test2.xlsx
+++ b/Test2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,56 +446,95 @@
         <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>99.22</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4364</v>
+        <v>4354</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>99.41</v>
+        <v>99.31999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5922</v>
+        <v>5912</v>
       </c>
       <c r="B4" t="n">
         <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>99.31999999999999</v>
+        <v>99.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7481</v>
+        <v>7470</v>
       </c>
       <c r="B5" t="n">
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>99.22</v>
+        <v>99.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9039</v>
+        <v>9028</v>
       </c>
       <c r="B6" t="n">
         <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>99.22</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10597</v>
+        <v>10587</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>99.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12145</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>99.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13704</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>99.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15262</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99.12</v>
       </c>
     </row>
   </sheetData>
